--- a/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/periodeformeleeenheid/periodeformeleeenheid.xlsx
+++ b/src/main/resources/be/vlaanderen/bodemenondergrond/data/id/conceptscheme/periodeformeleeenheid/periodeformeleeenheid.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,491 +413,510 @@
         <v>dc\.identifier</v>
       </c>
       <c r="D1" t="str">
+        <v>definition</v>
+      </c>
+      <c r="E1" t="str">
         <v>inScheme</v>
       </c>
-      <c r="E1" t="str">
-        <v>member</v>
-      </c>
       <c r="F1" t="str">
+        <v>notation</v>
+      </c>
+      <c r="G1" t="str">
+        <v>note</v>
+      </c>
+      <c r="H1" t="str">
         <v>prefLabel</v>
       </c>
-      <c r="G1" t="str">
-        <v>notation</v>
-      </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>topConceptOf</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>hasTopConcept</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/collection/periodeformeleeenheid/periodeformeleeenheid</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/cambrium</v>
       </c>
       <c r="B2" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Collection</v>
+        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C2" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.collection.periodeformeleeenheid.periodeformeleeenheid</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.cambrium</v>
       </c>
       <c r="D2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 485 tot 539 miljoen jaar geleden.</v>
       </c>
       <c r="E2" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/cambrium|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/carboon|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/devoon|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/jura|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/krijt|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/neogeen|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/onbekend|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/ordovicium|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/paleogeen|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/perm|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/precambrium|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/quartair|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/siluur|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/trias</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F2" t="str">
-        <v>Collectie van periodeformeleeenheid.</v>
+        <v>CM</v>
       </c>
       <c r="G2" t="str">
-        <v>null</v>
+        <v>De geologische periode van 485 tot 539 miljoen jaar geleden.</v>
       </c>
       <c r="H2" t="str">
-        <v>null</v>
+        <v>Cambrium</v>
       </c>
       <c r="I2" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J2" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/cambrium</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/carboon</v>
       </c>
       <c r="B3" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C3" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.cambrium</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.carboon</v>
       </c>
       <c r="D3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 299 tot 359 miljoen jaar geleden.</v>
       </c>
       <c r="E3" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F3" t="str">
-        <v>Cambrium</v>
+        <v>CB</v>
       </c>
       <c r="G3" t="str">
-        <v>CM</v>
+        <v>De geologische periode van 299 tot 359 miljoen jaar geleden.</v>
       </c>
       <c r="H3" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Carboon</v>
       </c>
       <c r="I3" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J3" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/carboon</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/devoon</v>
       </c>
       <c r="B4" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C4" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.carboon</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.devoon</v>
       </c>
       <c r="D4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 359 tot 419 miljoen jaar geleden.</v>
       </c>
       <c r="E4" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F4" t="str">
-        <v>Carboon</v>
+        <v>DE</v>
       </c>
       <c r="G4" t="str">
-        <v>CB</v>
+        <v>De geologische periode van 359 tot 419 miljoen jaar geleden.</v>
       </c>
       <c r="H4" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Devoon</v>
       </c>
       <c r="I4" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J4" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/devoon</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/jura</v>
       </c>
       <c r="B5" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C5" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.devoon</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.jura</v>
       </c>
       <c r="D5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 145 tot 201 miljoen jaar geleden.</v>
       </c>
       <c r="E5" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F5" t="str">
-        <v>Devoon</v>
+        <v>JU</v>
       </c>
       <c r="G5" t="str">
-        <v>DE</v>
+        <v>De geologische periode van 145 tot 201 miljoen jaar geleden.</v>
       </c>
       <c r="H5" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Jura</v>
       </c>
       <c r="I5" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J5" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/jura</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/krijt</v>
       </c>
       <c r="B6" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C6" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.jura</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.krijt</v>
       </c>
       <c r="D6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 66 tot 145 miljoen jaar geleden.</v>
       </c>
       <c r="E6" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F6" t="str">
-        <v>Jura</v>
+        <v>KR</v>
       </c>
       <c r="G6" t="str">
-        <v>JU</v>
+        <v>De geologische periode van 66 tot 145 miljoen jaar geleden.</v>
       </c>
       <c r="H6" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Krijt</v>
       </c>
       <c r="I6" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J6" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/krijt</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/neogeen</v>
       </c>
       <c r="B7" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C7" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.krijt</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.neogeen</v>
       </c>
       <c r="D7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 2,6 tot 23 miljoen jaar geleden.</v>
       </c>
       <c r="E7" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F7" t="str">
-        <v>Krijt</v>
+        <v>NE</v>
       </c>
       <c r="G7" t="str">
-        <v>KR</v>
+        <v>De geologische periode van 2,6 tot 23 miljoen jaar geleden.</v>
       </c>
       <c r="H7" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Neogeen</v>
       </c>
       <c r="I7" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J7" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/neogeen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/onbekend</v>
       </c>
       <c r="B8" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C8" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.neogeen</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.onbekend</v>
       </c>
       <c r="D8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode is onbekend.</v>
       </c>
       <c r="E8" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F8" t="str">
-        <v>Neogeen</v>
+        <v>ON</v>
       </c>
       <c r="G8" t="str">
-        <v>NE</v>
+        <v>De geologische periode is onbekend.</v>
       </c>
       <c r="H8" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>onbekend</v>
       </c>
       <c r="I8" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J8" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/onbekend</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/ordovicium</v>
       </c>
       <c r="B9" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C9" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.onbekend</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.ordovicium</v>
       </c>
       <c r="D9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 444 tot 485 miljoen jaar geleden.</v>
       </c>
       <c r="E9" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F9" t="str">
-        <v>onbekend</v>
+        <v>OR</v>
       </c>
       <c r="G9" t="str">
-        <v>ON</v>
+        <v>De geologische periode van 444 tot 485 miljoen jaar geleden.</v>
       </c>
       <c r="H9" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Ordovicium</v>
       </c>
       <c r="I9" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J9" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/ordovicium</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/paleogeen</v>
       </c>
       <c r="B10" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C10" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.ordovicium</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.paleogeen</v>
       </c>
       <c r="D10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 23 tot 66 miljoen jaar geleden.</v>
       </c>
       <c r="E10" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F10" t="str">
-        <v>Ordovicium</v>
+        <v>PA</v>
       </c>
       <c r="G10" t="str">
-        <v>OR</v>
+        <v>De geologische periode van 23 tot 66 miljoen jaar geleden.</v>
       </c>
       <c r="H10" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Paleogeen</v>
       </c>
       <c r="I10" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J10" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/paleogeen</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/perm</v>
       </c>
       <c r="B11" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C11" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.paleogeen</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.perm</v>
       </c>
       <c r="D11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 252 tot 299 miljoen jaar geleden.</v>
       </c>
       <c r="E11" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F11" t="str">
-        <v>Paleogeen</v>
+        <v>PE</v>
       </c>
       <c r="G11" t="str">
-        <v>PA</v>
+        <v>De geologische periode van 252 tot 299 miljoen jaar geleden.</v>
       </c>
       <c r="H11" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Perm</v>
       </c>
       <c r="I11" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J11" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/perm</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/precambrium</v>
       </c>
       <c r="B12" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C12" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.perm</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.precambrium</v>
       </c>
       <c r="D12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 539 miljoen jaar tot 4,57 miljard jaar geleden.</v>
       </c>
       <c r="E12" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F12" t="str">
-        <v>Perm</v>
+        <v>PC</v>
       </c>
       <c r="G12" t="str">
-        <v>PE</v>
+        <v>De geologische periode van 539 miljoen jaar tot 4,57 miljard jaar geleden.</v>
       </c>
       <c r="H12" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Precambrium</v>
       </c>
       <c r="I12" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J12" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/precambrium</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/quartair</v>
       </c>
       <c r="B13" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C13" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.precambrium</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.quartair</v>
       </c>
       <c r="D13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode vanaf heden tot 2,6 miljoen jaar geleden.</v>
       </c>
       <c r="E13" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F13" t="str">
-        <v>Precambrium</v>
+        <v>QU</v>
       </c>
       <c r="G13" t="str">
-        <v>PC</v>
+        <v>De geologische periode vanaf heden tot 2,6 miljoen jaar geleden.</v>
       </c>
       <c r="H13" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Quartair</v>
       </c>
       <c r="I13" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J13" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/quartair</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/siluur</v>
       </c>
       <c r="B14" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C14" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.quartair</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.siluur</v>
       </c>
       <c r="D14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 419 tot 444 miljoen jaar geleden.</v>
       </c>
       <c r="E14" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F14" t="str">
-        <v>Quartair</v>
+        <v>SI</v>
       </c>
       <c r="G14" t="str">
-        <v>QU</v>
+        <v>De geologische periode van 419 tot 444 miljoen jaar geleden.</v>
       </c>
       <c r="H14" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Siluur</v>
       </c>
       <c r="I14" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J14" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/siluur</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/trias</v>
       </c>
       <c r="B15" t="str">
         <v>http://www.w3.org/2004/02/skos/core#Concept</v>
       </c>
       <c r="C15" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.siluur</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.trias</v>
       </c>
       <c r="D15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>De geologische periode van 201 tot 252 miljoen jaar geleden.</v>
       </c>
       <c r="E15" t="str">
-        <v>null</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="F15" t="str">
-        <v>Siluur</v>
+        <v>TR</v>
       </c>
       <c r="G15" t="str">
-        <v>SI</v>
+        <v>De geologische periode van 201 tot 252 miljoen jaar geleden.</v>
       </c>
       <c r="H15" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Trias</v>
       </c>
       <c r="I15" t="str">
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+      </c>
+      <c r="J15" t="str">
         <v>null</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/trias</v>
+        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#Concept</v>
+        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
       </c>
       <c r="C16" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.concept.periodeformeleeenheid.trias</v>
+        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.periodeformeleeenheid</v>
       </c>
       <c r="D16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>null</v>
       </c>
       <c r="E16" t="str">
         <v>null</v>
       </c>
       <c r="F16" t="str">
-        <v>Trias</v>
+        <v>null</v>
       </c>
       <c r="G16" t="str">
-        <v>TR</v>
+        <v>null</v>
       </c>
       <c r="H16" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
+        <v>Geologische periodes</v>
       </c>
       <c r="I16" t="str">
         <v>null</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://data.bodemenondergrond.vlaanderen.be/id/conceptscheme/periodeformeleeenheid</v>
-      </c>
-      <c r="B17" t="str">
-        <v>http://www.w3.org/2004/02/skos/core#ConceptScheme</v>
-      </c>
-      <c r="C17" t="str">
-        <v>be.vlaanderen.bodemenondergrond.data.id.conceptscheme.periodeformeleeenheid</v>
-      </c>
-      <c r="D17" t="str">
-        <v>null</v>
-      </c>
-      <c r="E17" t="str">
-        <v>null</v>
-      </c>
-      <c r="F17" t="str">
-        <v>Geologische periodes</v>
-      </c>
-      <c r="G17" t="str">
-        <v>null</v>
-      </c>
-      <c r="H17" t="str">
-        <v>null</v>
-      </c>
-      <c r="I17" t="str">
+      <c r="J16" t="str">
         <v>https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/cambrium|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/carboon|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/devoon|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/jura|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/krijt|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/neogeen|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/onbekend|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/ordovicium|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/paleogeen|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/perm|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/precambrium|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/quartair|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/siluur|https://data.bodemenondergrond.vlaanderen.be/id/concept/periodeformeleeenheid/trias</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J16"/>
   </ignoredErrors>
 </worksheet>
 </file>